--- a/SystemDevelopment/RelationalModel.xlsx
+++ b/SystemDevelopment/RelationalModel.xlsx
@@ -167,7 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +183,23 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -249,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -258,6 +275,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1064,7 +1087,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1129,7 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -1140,10 +1163,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1158,7 +1181,7 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="4" t="s">
@@ -1185,7 +1208,7 @@
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M11" s="3" t="s">
@@ -1203,7 +1226,7 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M14" s="4" t="s">
@@ -1221,7 +1244,7 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M17" s="4" t="s">
@@ -1249,19 +1272,19 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="8" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="4" t="s">
@@ -1276,10 +1299,10 @@
       <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="12" t="s">
         <v>39</v>
       </c>
       <c r="M20" s="6" t="s">
@@ -1302,7 +1325,7 @@
       <c r="P23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M24" s="4" t="s">
@@ -1330,7 +1353,7 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="8" t="s">
         <v>33</v>
       </c>
       <c r="M27" s="4" t="s">
@@ -1339,7 +1362,7 @@
       <c r="N27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="13" t="s">
         <v>48</v>
       </c>
       <c r="P27" s="4" t="s">
@@ -1355,7 +1378,7 @@
       </c>
     </row>
     <row r="40" spans="14:17" x14ac:dyDescent="0.25">
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="O40" s="3" t="s">

--- a/SystemDevelopment/RelationalModel.xlsx
+++ b/SystemDevelopment/RelationalModel.xlsx
@@ -157,10 +157,10 @@
     <t>Country</t>
   </si>
   <si>
-    <t>ProductSupplierID</t>
-  </si>
-  <si>
     <t>zipCodeId</t>
+  </si>
+  <si>
+    <t>ProductSupplier</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1363,7 +1363,7 @@
         <v>14</v>
       </c>
       <c r="O27" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>16</v>

--- a/SystemDevelopment/RelationalModel.xlsx
+++ b/SystemDevelopment/RelationalModel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Relational Model</t>
   </si>
@@ -215,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -262,11 +262,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -281,9 +294,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -697,13 +711,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>440531</xdr:colOff>
+      <xdr:colOff>559592</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47629</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>250034</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>357186</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>130970</xdr:rowOff>
     </xdr:to>
@@ -714,8 +728,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="12346784" y="5643564"/>
-          <a:ext cx="1988341" cy="1083471"/>
+          <a:off x="12775406" y="5286376"/>
+          <a:ext cx="2035968" cy="1750219"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -798,7 +812,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1086,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1104,8 +1118,8 @@
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1342,7 +1356,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="M26" s="1"/>
@@ -1353,22 +1367,25 @@
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="4" t="s">
+      <c r="M27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="N27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O27" s="13" t="s">
+      <c r="O27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="P27" s="4" t="s">
+      <c r="Q27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>32</v>
       </c>
     </row>

--- a/SystemDevelopment/RelationalModel.xlsx
+++ b/SystemDevelopment/RelationalModel.xlsx
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,7 +1118,7 @@
     <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
